--- a/outputs/hypothesisTests.xlsx
+++ b/outputs/hypothesisTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7CB62C-A87F-428A-884F-3D046EDE153B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF304B-3585-45F1-A391-9AC5576FC812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="3360" windowWidth="27780" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="5010" windowWidth="25095" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hypothesisTests" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,6 +595,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,7 +954,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,16 +988,16 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>4.8470588235294096</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>-1.12887471623177</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>0.260524522011361</v>
       </c>
       <c r="F2" s="8">
@@ -1007,16 +1008,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>5.1529411764705797</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>5.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>-0.72670533439724305</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>0.46841302344909003</v>
       </c>
       <c r="F3" s="8">
@@ -1027,17 +1028,17 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>167.5692</v>
-      </c>
-      <c r="C4">
-        <v>1040.1699000000001</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="9">
+        <v>2.7928199999999999</v>
+      </c>
+      <c r="C4" s="9">
+        <v>17.336165000000001</v>
+      </c>
+      <c r="D4" s="9">
         <v>-9.9332896295428093</v>
       </c>
-      <c r="E4">
-        <v>9.6098408444621296E-17</v>
+      <c r="E4" s="10">
+        <v>9.6098408444620605E-17</v>
       </c>
       <c r="F4" s="8">
         <v>103.860738194633</v>
@@ -1047,37 +1048,37 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>42.194570135746602</v>
-      </c>
-      <c r="C5">
-        <v>43.255876068375997</v>
-      </c>
-      <c r="D5">
-        <v>-0.59283603985159194</v>
-      </c>
-      <c r="E5">
-        <v>0.554080237211518</v>
+      <c r="B5" s="9">
+        <v>-0.109137188716422</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.10307401156550999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-1.41378536788845</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.159243695677449</v>
       </c>
       <c r="F5" s="8">
-        <v>169.66531346799599</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>43.596789613663503</v>
-      </c>
-      <c r="C6">
-        <v>45.125259705477099</v>
-      </c>
-      <c r="D6">
-        <v>-0.47436341189458398</v>
-      </c>
-      <c r="E6">
-        <v>0.63584210717801004</v>
+      <c r="B6" s="9">
+        <v>-3.0560512901583799E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.88627066292736E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-0.49897336043604801</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.618434790868025</v>
       </c>
       <c r="F6" s="8">
         <v>172.098536496431</v>
@@ -1087,17 +1088,17 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1141.64527058823</v>
-      </c>
-      <c r="C7">
-        <v>1045.15693333333</v>
-      </c>
-      <c r="D7">
-        <v>1.35811738404289</v>
-      </c>
-      <c r="E7">
-        <v>0.17624102169265701</v>
+      <c r="B7" s="9">
+        <v>19.027421176470501</v>
+      </c>
+      <c r="C7" s="9">
+        <v>17.419282222222201</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.3581173840428999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.17624102169265601</v>
       </c>
       <c r="F7" s="8">
         <v>168.60438453625201</v>

--- a/outputs/hypothesisTests.xlsx
+++ b/outputs/hypothesisTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF304B-3585-45F1-A391-9AC5576FC812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115764CB-8D37-4954-86CA-1E88E1A5C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="5010" windowWidth="25095" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hypothesisTests" sheetId="1" r:id="rId1"/>
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -596,6 +599,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -954,7 +958,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1001,7 @@
       <c r="D2" s="9">
         <v>-1.12887471623177</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>0.260524522011361</v>
       </c>
       <c r="F2" s="8">
@@ -1017,7 +1021,7 @@
       <c r="D3" s="9">
         <v>-0.72670533439724305</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>0.46841302344909003</v>
       </c>
       <c r="F3" s="8">
@@ -1057,7 +1061,7 @@
       <c r="D5" s="9">
         <v>-1.41378536788845</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.159243695677449</v>
       </c>
       <c r="F5" s="8">
@@ -1077,7 +1081,7 @@
       <c r="D6" s="9">
         <v>-0.49897336043604801</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>0.618434790868025</v>
       </c>
       <c r="F6" s="8">
@@ -1097,7 +1101,7 @@
       <c r="D7" s="9">
         <v>1.3581173840428999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0.17624102169265601</v>
       </c>
       <c r="F7" s="8">

--- a/outputs/hypothesisTests.xlsx
+++ b/outputs/hypothesisTests.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115764CB-8D37-4954-86CA-1E88E1A5C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C59E56-2C13-424F-9E98-EB2BD64CD163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hypothesisTests" sheetId="1" r:id="rId1"/>
+    <sheet name="plex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>df</t>
   </si>
@@ -64,6 +65,42 @@
   </si>
   <si>
     <t>FFE score</t>
+  </si>
+  <si>
+    <t>Captivation</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Humor</t>
+  </si>
+  <si>
+    <t>Nurture</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>Sensation</t>
   </si>
 </sst>
 </file>
@@ -575,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -596,9 +633,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -958,7 +993,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,125 +1027,125 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>4.8470588235294096</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D2" s="9">
-        <v>-1.12887471623177</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.260524522011361</v>
-      </c>
-      <c r="F2" s="8">
-        <v>171.80212776393901</v>
+      <c r="D2" s="8">
+        <v>-1.1297195597313301</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.26015835458148001</v>
+      </c>
+      <c r="F2">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>5.1529411764705797</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>5.3</v>
       </c>
-      <c r="D3" s="9">
-        <v>-0.72670533439724305</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.46841302344909003</v>
-      </c>
-      <c r="F3" s="8">
-        <v>168.80333362024999</v>
+      <c r="D3" s="8">
+        <v>-0.72880726085203795</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.46710502065537601</v>
+      </c>
+      <c r="F3">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2.7928199999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>17.336165000000001</v>
       </c>
-      <c r="D4" s="9">
-        <v>-9.9332896295428093</v>
-      </c>
-      <c r="E4" s="10">
-        <v>9.6098408444620605E-17</v>
-      </c>
-      <c r="F4" s="8">
-        <v>103.860738194633</v>
+      <c r="D4" s="8">
+        <v>-9.6928970177535998</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5.1177411031395398E-18</v>
+      </c>
+      <c r="F4">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.109137188716422</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.10307401156550999</v>
       </c>
-      <c r="D5" s="9">
-        <v>-1.41378536788845</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.159243695677449</v>
-      </c>
-      <c r="F5" s="8">
-        <v>171</v>
+      <c r="D5" s="8">
+        <v>-1.4070165281359801</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.161216473982942</v>
+      </c>
+      <c r="F5">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
-        <v>-3.0560512901583799E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2.88627066292736E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-0.49897336043604801</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.618434790868025</v>
-      </c>
-      <c r="F6" s="8">
-        <v>172.098536496431</v>
+      <c r="B6" s="8">
+        <v>-2.0673605307369301E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.9525071679182E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-0.33597637079760201</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.73729581626698404</v>
+      </c>
+      <c r="F6">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>19.027421176470501</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>17.419282222222201</v>
       </c>
-      <c r="D7" s="9">
-        <v>1.3581173840428999</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.17624102169265601</v>
-      </c>
-      <c r="F7" s="8">
-        <v>168.60438453625201</v>
+      <c r="D7" s="8">
+        <v>1.3496483208698999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.17889224836682099</v>
+      </c>
+      <c r="F7">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1138,4 +1173,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9969C63-490C-437A-AFFC-BE1886B52F4A}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.494117647058823</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.58888888888888802</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-1.2563065689892099</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.21069866208711799</v>
+      </c>
+      <c r="F2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.34117647058823503</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-6.6679140795516396</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3.3519611511430401E-10</v>
+      </c>
+      <c r="F3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.152941176470588</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-7.5994854731689996</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.7980839235228E-12</v>
+      </c>
+      <c r="F4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.21176470588235199</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-6.0040789378628503</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.1023184687861401E-8</v>
+      </c>
+      <c r="F5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.34081623040930897</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.73365546390720304</v>
+      </c>
+      <c r="F6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.50588235294117601</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.74444444444444402</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-3.3492251800714499</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.9468405464890391E-4</v>
+      </c>
+      <c r="F7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.90588235294117603</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-1.2983661942134299</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.19588967143549901</v>
+      </c>
+      <c r="F8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.51764705882352902</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-2.3396479917131101</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.0443471097187998E-2</v>
+      </c>
+      <c r="F9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.0678612763083499</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.28707093300176301</v>
+      </c>
+      <c r="F10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.48235294117646998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.206535236271809</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.83661571731237006</v>
+      </c>
+      <c r="F11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-2.12494787487329</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3.5010863573468901E-2</v>
+      </c>
+      <c r="F12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.51764705882352902</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-2.3396479917131101</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.0443471097187998E-2</v>
+      </c>
+      <c r="F13">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>